--- a/MDPCPLateFileTracker.xlsx
+++ b/MDPCPLateFileTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="5055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="5055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
   <si>
     <t>file / packet</t>
   </si>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">status </t>
   </si>
   <si>
-    <t>not received</t>
-  </si>
-  <si>
     <t>specifics</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
   </si>
   <si>
     <t>T1MD0625_ClaimsData_PY2021_Q1_20210122_v02.zip</t>
-  </si>
-  <si>
-    <t>N/A, waiting</t>
   </si>
   <si>
     <t>initial files were corrupt, and same as above, 4th try okay</t>
@@ -209,6 +203,63 @@
   </si>
   <si>
     <t>PracticeIDCOUNT</t>
+  </si>
+  <si>
+    <t>after backload</t>
+  </si>
+  <si>
+    <t>ORGIDCOUNT</t>
+  </si>
+  <si>
+    <t>SELECT count(*) AS rwCnt --237208</t>
+  </si>
+  <si>
+    <t>FROM prod_medstar_mdpcp.ods.MDPCP_PTBPHY</t>
+  </si>
+  <si>
+    <t>WHERE SRC_ps_id = 'T1MD0625'</t>
+  </si>
+  <si>
+    <t>AND substr(load_period,3,7) = '2021-1'</t>
+  </si>
+  <si>
+    <t>SELECT count(*) AS rwCnt -77208</t>
+  </si>
+  <si>
+    <t>FROM prod_medstar_mdpcp_fe.ods.MDPCP_PTBPHY</t>
+  </si>
+  <si>
+    <t>SELECT count(*) AS rwCnt --190826</t>
+  </si>
+  <si>
+    <t>WHERE SRC_ps_id = 'T1MD0368'</t>
+  </si>
+  <si>
+    <t>AND substr(load_period,3,7) = '2020-4'</t>
+  </si>
+  <si>
+    <t>SELECT count(*) AS rwCnt --0</t>
+  </si>
+  <si>
+    <t>SELECT count(*) AS rwCnt --308085</t>
+  </si>
+  <si>
+    <t>WHERE SRC_ps_id = 'T1MD0568'</t>
+  </si>
+  <si>
+    <t>SELECT count(*) AS rwCnt --160000</t>
+  </si>
+  <si>
+    <t>SELECT count(*) AS rwCnt --221704</t>
+  </si>
+  <si>
+    <t>AND substr(load_period,3,7) = '2020-3'</t>
+  </si>
+  <si>
+    <t>SELECT count(*) AS rwCnt --61704</t>
+  </si>
+  <si>
+    <t>validate backloaded ptbphy prod vs prod_fe</t>
   </si>
 </sst>
 </file>
@@ -247,16 +298,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -290,10 +340,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,12 +648,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -613,56 +664,56 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="E6" s="10">
         <v>44260</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>27</v>
+      <c r="F6" s="10">
+        <v>44274</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>44260</v>
@@ -671,21 +722,21 @@
         <v>44260</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1">
         <v>44260</v>
@@ -694,159 +745,159 @@
         <v>44260</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3">
         <v>44230</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1">
         <v>44230</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1">
         <v>44230</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="3">
         <v>44230</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1">
         <v>44230</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1">
         <v>44230</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1">
         <v>44236</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -857,10 +908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,242 +923,628 @@
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>44182.934745370374</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="9">
+        <v>37</v>
+      </c>
+      <c r="D2" s="8">
         <v>45413</v>
       </c>
       <c r="E2">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="8">
+        <v>38</v>
+      </c>
+      <c r="B3" s="7">
         <v>44182.934733796297</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="9">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8">
         <v>2134</v>
       </c>
       <c r="E3">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7">
         <v>44188.172789351855</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="9">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8">
         <v>42949</v>
       </c>
       <c r="E4">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="8">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7">
         <v>44188.173379629632</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="9">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8">
         <v>1546164</v>
       </c>
       <c r="E5">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="8">
+        <v>41</v>
+      </c>
+      <c r="B6" s="7">
         <v>44188.172743055555</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="9">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8">
         <v>171796</v>
       </c>
       <c r="E6">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="8">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7">
         <v>44183.123472222222</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="9">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8">
         <v>330217</v>
       </c>
       <c r="E7">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="8">
+        <v>43</v>
+      </c>
+      <c r="B8" s="7">
         <v>44183.817847222221</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="9">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8">
         <v>1859559</v>
       </c>
       <c r="E8">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="8">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7">
         <v>44183.350405092591</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="9">
+        <v>37</v>
+      </c>
+      <c r="D9" s="8">
         <v>37676</v>
       </c>
       <c r="E9">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="8">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7">
         <v>44183.237407407411</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="9">
+        <v>37</v>
+      </c>
+      <c r="D10" s="8">
         <v>2501716</v>
       </c>
       <c r="E10">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="8">
+        <v>46</v>
+      </c>
+      <c r="B11" s="7">
         <v>44183.977731481478</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="9">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8">
         <v>347226</v>
       </c>
       <c r="E11">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="8">
+        <v>47</v>
+      </c>
+      <c r="B12" s="7">
         <v>44188.863333333335</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="9">
+        <v>37</v>
+      </c>
+      <c r="D12" s="8">
         <v>6650147</v>
       </c>
       <c r="E12">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="8">
+        <v>48</v>
+      </c>
+      <c r="B13" s="7">
         <v>44184.334826388891</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="9">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8">
         <v>2224417</v>
       </c>
       <c r="E13">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="8">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
         <v>44183.120995370373</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>480</v>
       </c>
       <c r="E14">
         <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7">
+        <v>44182.934745370374</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="8">
+        <v>45413</v>
+      </c>
+      <c r="E18">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="7">
+        <v>44182.934733796297</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2134</v>
+      </c>
+      <c r="E19">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="7">
+        <v>44291.830462962964</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="8">
+        <v>45413</v>
+      </c>
+      <c r="E20">
+        <v>51</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44291.830324074072</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1634868</v>
+      </c>
+      <c r="E21">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="7">
+        <v>44291.830381944441</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="8">
+        <v>181652</v>
+      </c>
+      <c r="E22">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="7">
+        <v>44291.83048611111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="8">
+        <v>342102</v>
+      </c>
+      <c r="E23">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="7">
+        <v>44291.830405092594</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1932672</v>
+      </c>
+      <c r="E24">
+        <v>51</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="7">
+        <v>44291.830393518518</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="8">
+        <v>39257</v>
+      </c>
+      <c r="E25">
+        <v>51</v>
+      </c>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="7">
+        <v>44291.830474537041</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2613005</v>
+      </c>
+      <c r="E26">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="7">
+        <v>44291.830092592594</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="8">
+        <v>362744</v>
+      </c>
+      <c r="E27">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="7">
+        <v>44291.830949074072</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="8">
+        <v>7339722</v>
+      </c>
+      <c r="E28">
+        <v>51</v>
+      </c>
+      <c r="H28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="7">
+        <v>44291.829247685186</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2321219</v>
+      </c>
+      <c r="E29">
+        <v>51</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="7">
+        <v>44291.841215277775</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>600</v>
+      </c>
+      <c r="E30">
+        <v>51</v>
+      </c>
+      <c r="H30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
